--- a/test/ans.xlsx
+++ b/test/ans.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pv\Desktop\EHS_Scrutinizer_Preview\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82E27331-41DE-4A63-BC86-E9B522B23096}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B044102-1B34-4B0D-B93C-28BF2F0D0AFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3840" yWindow="1860" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="检测结果达标情况一览表" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t>序号</t>
   </si>
@@ -80,10 +80,6 @@
   </si>
   <si>
     <t>甲醇</t>
-  </si>
-  <si>
-    <t>/</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -460,7 +456,7 @@
   <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -698,11 +694,11 @@
       <c r="D12" s="2">
         <v>9</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" s="2" t="s">
-        <v>20</v>
+      <c r="E12" s="2">
+        <v>9</v>
+      </c>
+      <c r="F12" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.25">
